--- a/uploads/xlsx/Timetable SE Department (Fall-25 & Spring-26) Version-1.0-updated.xlsx
+++ b/uploads/xlsx/Timetable SE Department (Fall-25 & Spring-26) Version-1.0-updated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zPythonStuff\Superior Academic Tool\uploads\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C7C1758-C2D1-429D-BCAE-09246E1C691F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC120DBC-BA84-425B-A2CB-4D85C3800318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="577" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="324">
   <si>
     <t>Department fo Software Engineering {Monday to Friday Timetable Fall-25}</t>
   </si>
@@ -146,15 +146,6 @@
   </si>
   <si>
     <t>10:30-11:45</t>
-  </si>
-  <si>
-    <t>11:45 -01:00</t>
-  </si>
-  <si>
-    <t>02:00 - 03:15</t>
-  </si>
-  <si>
-    <t>03:15 - 04:30</t>
   </si>
   <si>
     <t xml:space="preserve">Ist Floor </t>
@@ -662,9 +653,6 @@
     <t xml:space="preserve">Application of  Information &amp; Communication Technology (Lab)
 BSSE-1E
 Mr. Muhammad Usman Khan  </t>
-  </si>
-  <si>
-    <t>04:30 - 06:50</t>
   </si>
   <si>
     <r>
@@ -1658,6 +1646,33 @@
 BSSE-5A
 Mr. Muhammad Abdullah </t>
   </si>
+  <si>
+    <t>12:05-01:25</t>
+  </si>
+  <si>
+    <t>01:30-02:50</t>
+  </si>
+  <si>
+    <t>02:50-04:10</t>
+  </si>
+  <si>
+    <t>04:10-05:30</t>
+  </si>
+  <si>
+    <t>05:30-06:50</t>
+  </si>
+  <si>
+    <t>11:45-01:00</t>
+  </si>
+  <si>
+    <t>02:00-03:15</t>
+  </si>
+  <si>
+    <t>03:15-04:30</t>
+  </si>
+  <si>
+    <t>04:30-06:50</t>
+  </si>
 </sst>
 </file>
 
@@ -1984,7 +1999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="143">
+  <borders count="142">
     <border>
       <left/>
       <right/>
@@ -3458,19 +3473,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
@@ -3738,7 +3740,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="381">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3904,12 +3906,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4126,9 +4122,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4164,13 +4157,13 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="135" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
@@ -4186,13 +4179,13 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="134" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4233,73 +4226,19 @@
     <xf numFmtId="0" fontId="9" fillId="14" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4308,31 +4247,124 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4341,200 +4373,140 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="57" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="132" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4551,6 +4523,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4560,19 +4535,10 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4599,25 +4565,22 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="126" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4626,179 +4589,209 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="83" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="131" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="95" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="138" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="124" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="7" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="81" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="123" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="130" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="125" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="128" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="133" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="119" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="120" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="131" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="76" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4806,7 +4799,7 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="136" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="110" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4827,13 +4820,13 @@
     <xf numFmtId="0" fontId="26" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="141" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5065,8 +5058,8 @@
   <dimension ref="A1:AB999"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28:G28"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5091,11 +5084,11 @@
       <c r="D1" s="14"/>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="110"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="274"/>
+      <c r="I1" s="274"/>
+      <c r="J1" s="275"/>
+      <c r="K1" s="108"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -5115,21 +5108,21 @@
       <c r="AB1" s="3"/>
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="286" t="s">
+      <c r="A2" s="277" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
       <c r="F2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="216"/>
-      <c r="H2" s="216"/>
-      <c r="I2" s="216"/>
-      <c r="J2" s="216"/>
-      <c r="K2" s="111"/>
+      <c r="G2" s="276"/>
+      <c r="H2" s="276"/>
+      <c r="I2" s="276"/>
+      <c r="J2" s="276"/>
+      <c r="K2" s="109"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -5149,19 +5142,19 @@
       <c r="AB2" s="3"/>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="288"/>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="231"/>
+      <c r="A3" s="279"/>
+      <c r="B3" s="252"/>
+      <c r="C3" s="252"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="234"/>
       <c r="F3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="290"/>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="112"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="210"/>
+      <c r="J3" s="210"/>
+      <c r="K3" s="110"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -5181,19 +5174,19 @@
       <c r="AB3" s="3"/>
     </row>
     <row r="4" spans="1:28" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="288"/>
-      <c r="B4" s="231"/>
-      <c r="C4" s="231"/>
-      <c r="D4" s="231"/>
-      <c r="E4" s="231"/>
+      <c r="A4" s="279"/>
+      <c r="B4" s="234"/>
+      <c r="C4" s="234"/>
+      <c r="D4" s="234"/>
+      <c r="E4" s="234"/>
       <c r="F4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="292"/>
-      <c r="H4" s="293"/>
-      <c r="I4" s="293"/>
-      <c r="J4" s="293"/>
-      <c r="K4" s="113"/>
+      <c r="G4" s="281"/>
+      <c r="H4" s="208"/>
+      <c r="I4" s="208"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="111"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -5214,10 +5207,10 @@
     </row>
     <row r="5" spans="1:28" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="49"/>
-      <c r="B5" s="294" t="s">
+      <c r="B5" s="282" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="295"/>
+      <c r="C5" s="283"/>
       <c r="D5" s="50" t="s">
         <v>3</v>
       </c>
@@ -5228,19 +5221,19 @@
         <v>5</v>
       </c>
       <c r="G5" s="51" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="I5" s="52" t="s">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>48</v>
+        <v>318</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>319</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -5273,7 +5266,7 @@
       <c r="H6" s="58"/>
       <c r="I6" s="58"/>
       <c r="J6" s="59"/>
-      <c r="K6" s="114"/>
+      <c r="K6" s="112"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -5293,33 +5286,33 @@
       <c r="AB6" s="3"/>
     </row>
     <row r="7" spans="1:28" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="340" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="299" t="s">
+      <c r="C7" s="287" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="155" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="155" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="156" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="157" t="s">
-        <v>94</v>
-      </c>
-      <c r="H7" s="361" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="362"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="221"/>
+      <c r="D7" s="152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="152" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" s="153" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="154" t="s">
+        <v>91</v>
+      </c>
+      <c r="H7" s="184" t="s">
+        <v>224</v>
+      </c>
+      <c r="I7" s="185"/>
+      <c r="J7" s="343"/>
+      <c r="K7" s="344"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -5339,25 +5332,25 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="218"/>
+      <c r="A8" s="341"/>
       <c r="B8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="300"/>
-      <c r="D8" s="232" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="233"/>
-      <c r="F8" s="180" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="181"/>
-      <c r="H8" s="203" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="204"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="115"/>
+      <c r="C8" s="288"/>
+      <c r="D8" s="350" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="351"/>
+      <c r="F8" s="352" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="190"/>
+      <c r="H8" s="182" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" s="183"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="113"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -5377,25 +5370,25 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="218"/>
+      <c r="A9" s="341"/>
       <c r="B9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="300"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="106" t="s">
-        <v>133</v>
-      </c>
-      <c r="F9" s="180" t="s">
-        <v>278</v>
-      </c>
-      <c r="G9" s="181"/>
-      <c r="H9" s="203" t="s">
-        <v>104</v>
-      </c>
-      <c r="I9" s="366"/>
-      <c r="J9" s="136"/>
-      <c r="K9" s="88"/>
+      <c r="C9" s="288"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="104" t="s">
+        <v>130</v>
+      </c>
+      <c r="F9" s="352" t="s">
+        <v>274</v>
+      </c>
+      <c r="G9" s="190"/>
+      <c r="H9" s="182" t="s">
+        <v>101</v>
+      </c>
+      <c r="I9" s="198"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="86"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -5415,33 +5408,33 @@
       <c r="AB9" s="3"/>
     </row>
     <row r="10" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="218"/>
+      <c r="A10" s="341"/>
       <c r="B10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="296" t="s">
+      <c r="C10" s="284" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="146" t="s">
-        <v>63</v>
+      <c r="D10" s="143" t="s">
+        <v>60</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="G10" s="100" t="s">
-        <v>69</v>
-      </c>
-      <c r="H10" s="179" t="s">
-        <v>293</v>
-      </c>
-      <c r="I10" s="197" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="197"/>
-      <c r="K10" s="142"/>
+        <v>65</v>
+      </c>
+      <c r="G10" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="176" t="s">
+        <v>289</v>
+      </c>
+      <c r="I10" s="188" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="188"/>
+      <c r="K10" s="139"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -5461,25 +5454,25 @@
       <c r="AB10" s="3"/>
     </row>
     <row r="11" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="218"/>
+      <c r="A11" s="341"/>
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="297"/>
-      <c r="D11" s="187" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="306"/>
-      <c r="F11" s="189" t="s">
-        <v>237</v>
-      </c>
-      <c r="G11" s="190"/>
-      <c r="H11" s="189" t="s">
-        <v>97</v>
-      </c>
-      <c r="I11" s="183"/>
-      <c r="J11" s="278"/>
-      <c r="K11" s="311"/>
+      <c r="C11" s="285"/>
+      <c r="D11" s="262" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="292"/>
+      <c r="F11" s="186" t="s">
+        <v>233</v>
+      </c>
+      <c r="G11" s="187"/>
+      <c r="H11" s="186" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="192"/>
+      <c r="J11" s="298"/>
+      <c r="K11" s="299"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -5499,25 +5492,25 @@
       <c r="AB11" s="3"/>
     </row>
     <row r="12" spans="1:28" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="218"/>
+      <c r="A12" s="341"/>
       <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="297"/>
-      <c r="D12" s="207" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="234"/>
-      <c r="F12" s="189" t="s">
-        <v>289</v>
-      </c>
-      <c r="G12" s="190"/>
-      <c r="H12" s="185" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12" s="186"/>
-      <c r="J12" s="222"/>
-      <c r="K12" s="223"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="181" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="219"/>
+      <c r="F12" s="186" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="187"/>
+      <c r="H12" s="355" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" s="356"/>
+      <c r="J12" s="207"/>
+      <c r="K12" s="345"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -5537,24 +5530,24 @@
       <c r="AB12" s="3"/>
     </row>
     <row r="13" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="218"/>
+      <c r="A13" s="341"/>
       <c r="B13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="297"/>
-      <c r="D13" s="210" t="s">
-        <v>243</v>
-      </c>
-      <c r="E13" s="181"/>
-      <c r="G13" s="235" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="235"/>
-      <c r="I13" s="360" t="s">
-        <v>271</v>
-      </c>
-      <c r="J13" s="208"/>
-      <c r="K13" s="117"/>
+      <c r="C13" s="285"/>
+      <c r="D13" s="189" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="190"/>
+      <c r="G13" s="295" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" s="295"/>
+      <c r="I13" s="179" t="s">
+        <v>267</v>
+      </c>
+      <c r="J13" s="180"/>
+      <c r="K13" s="115"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -5574,27 +5567,27 @@
       <c r="AB13" s="3"/>
     </row>
     <row r="14" spans="1:28" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="218"/>
+      <c r="A14" s="341"/>
       <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="297"/>
-      <c r="D14" s="178" t="s">
-        <v>134</v>
-      </c>
-      <c r="E14" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="F14" s="204"/>
-      <c r="G14" s="106" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="182" t="s">
-        <v>117</v>
-      </c>
-      <c r="I14" s="202"/>
-      <c r="J14" s="230"/>
-      <c r="K14" s="245"/>
+      <c r="C14" s="285"/>
+      <c r="D14" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="E14" s="182" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" s="183"/>
+      <c r="G14" s="104" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="354" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="363"/>
+      <c r="J14" s="322"/>
+      <c r="K14" s="313"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -5614,25 +5607,25 @@
       <c r="AB14" s="3"/>
     </row>
     <row r="15" spans="1:28" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="218"/>
+      <c r="A15" s="341"/>
       <c r="B15" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="297"/>
-      <c r="D15" s="211" t="s">
-        <v>51</v>
-      </c>
-      <c r="E15" s="212"/>
-      <c r="F15" s="307" t="s">
-        <v>282</v>
-      </c>
-      <c r="G15" s="183"/>
-      <c r="H15" s="240" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="241"/>
-      <c r="J15" s="241"/>
-      <c r="K15" s="242"/>
+      <c r="C15" s="285"/>
+      <c r="D15" s="364" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="365"/>
+      <c r="F15" s="293" t="s">
+        <v>278</v>
+      </c>
+      <c r="G15" s="192"/>
+      <c r="H15" s="318" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="319"/>
+      <c r="J15" s="319"/>
+      <c r="K15" s="320"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -5652,27 +5645,27 @@
       <c r="AB15" s="3"/>
     </row>
     <row r="16" spans="1:28" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="218"/>
+      <c r="A16" s="341"/>
       <c r="B16" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="297"/>
-      <c r="D16" s="207" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="208"/>
-      <c r="F16" s="203" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="204"/>
-      <c r="H16" s="203" t="s">
-        <v>114</v>
-      </c>
-      <c r="I16" s="204"/>
-      <c r="J16" s="301" t="s">
-        <v>284</v>
-      </c>
-      <c r="K16" s="229"/>
+      <c r="C16" s="285"/>
+      <c r="D16" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="180"/>
+      <c r="F16" s="182" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="183"/>
+      <c r="H16" s="182" t="s">
+        <v>111</v>
+      </c>
+      <c r="I16" s="183"/>
+      <c r="J16" s="289" t="s">
+        <v>280</v>
+      </c>
+      <c r="K16" s="204"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -5692,27 +5685,27 @@
       <c r="AB16" s="3"/>
     </row>
     <row r="17" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="218"/>
+      <c r="A17" s="341"/>
       <c r="B17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="297"/>
-      <c r="D17" s="207" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="208"/>
-      <c r="F17" s="203" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="204"/>
-      <c r="H17" s="203" t="s">
-        <v>138</v>
-      </c>
-      <c r="I17" s="190"/>
-      <c r="J17" s="203" t="s">
-        <v>268</v>
-      </c>
-      <c r="K17" s="275"/>
+      <c r="C17" s="285"/>
+      <c r="D17" s="181" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="180"/>
+      <c r="F17" s="182" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="183"/>
+      <c r="H17" s="182" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="187"/>
+      <c r="J17" s="182" t="s">
+        <v>264</v>
+      </c>
+      <c r="K17" s="201"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -5732,25 +5725,25 @@
       <c r="AB17" s="3"/>
     </row>
     <row r="18" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="218"/>
+      <c r="A18" s="341"/>
       <c r="B18" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="297"/>
-      <c r="D18" s="207" t="s">
-        <v>215</v>
-      </c>
-      <c r="E18" s="234"/>
-      <c r="F18" s="228" t="s">
-        <v>259</v>
-      </c>
-      <c r="G18" s="206"/>
-      <c r="H18" s="203" t="s">
-        <v>264</v>
-      </c>
-      <c r="I18" s="204"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="158"/>
+      <c r="C18" s="285"/>
+      <c r="D18" s="181" t="s">
+        <v>211</v>
+      </c>
+      <c r="E18" s="219"/>
+      <c r="F18" s="202" t="s">
+        <v>255</v>
+      </c>
+      <c r="G18" s="203"/>
+      <c r="H18" s="182" t="s">
+        <v>260</v>
+      </c>
+      <c r="I18" s="183"/>
+      <c r="J18" s="142"/>
+      <c r="K18" s="155"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -5770,23 +5763,23 @@
       <c r="AB18" s="3"/>
     </row>
     <row r="19" spans="1:28" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="219"/>
+      <c r="A19" s="342"/>
       <c r="B19" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="298"/>
-      <c r="D19" s="302" t="s">
-        <v>283</v>
-      </c>
-      <c r="E19" s="303"/>
-      <c r="F19" s="253" t="s">
-        <v>308</v>
-      </c>
-      <c r="G19" s="303"/>
-      <c r="H19" s="304"/>
-      <c r="I19" s="305"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="118"/>
+      <c r="C19" s="286"/>
+      <c r="D19" s="226" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="290"/>
+      <c r="F19" s="291" t="s">
+        <v>304</v>
+      </c>
+      <c r="G19" s="290"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="107"/>
+      <c r="K19" s="116"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -5807,10 +5800,10 @@
     </row>
     <row r="20" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24"/>
-      <c r="B20" s="352" t="s">
+      <c r="B20" s="244" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="353"/>
+      <c r="C20" s="245"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -5818,7 +5811,7 @@
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="27"/>
-      <c r="K20" s="119"/>
+      <c r="K20" s="117"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -5838,13 +5831,13 @@
       <c r="AB20" s="3"/>
     </row>
     <row r="21" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="236" t="s">
+      <c r="A21" s="353" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="68"/>
       <c r="D21" s="50" t="s">
         <v>3</v>
       </c>
@@ -5855,19 +5848,19 @@
         <v>5</v>
       </c>
       <c r="G21" s="51" t="s">
-        <v>6</v>
+        <v>315</v>
       </c>
       <c r="H21" s="52" t="s">
-        <v>7</v>
+        <v>316</v>
       </c>
       <c r="I21" s="52" t="s">
-        <v>8</v>
+        <v>317</v>
       </c>
       <c r="J21" s="52" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="64" t="s">
-        <v>48</v>
+        <v>318</v>
+      </c>
+      <c r="K21" s="62" t="s">
+        <v>319</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -5887,30 +5880,30 @@
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
     </row>
-    <row r="22" spans="1:28" s="130" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="237"/>
-      <c r="B22" s="129" t="s">
+    <row r="22" spans="1:28" s="128" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="325"/>
+      <c r="B22" s="127" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="213" t="s">
+      <c r="C22" s="246" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="200" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="231"/>
+      <c r="D22" s="238" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="234"/>
       <c r="F22" s="22" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="198" t="s">
-        <v>230</v>
-      </c>
-      <c r="I22" s="199"/>
-      <c r="J22" s="243"/>
-      <c r="K22" s="244"/>
+        <v>71</v>
+      </c>
+      <c r="H22" s="215" t="s">
+        <v>226</v>
+      </c>
+      <c r="I22" s="337"/>
+      <c r="J22" s="308"/>
+      <c r="K22" s="321"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -5930,27 +5923,27 @@
       <c r="AB22" s="3"/>
     </row>
     <row r="23" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="237"/>
+      <c r="A23" s="325"/>
       <c r="B23" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="214"/>
-      <c r="D23" s="187" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="188"/>
-      <c r="F23" s="135" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="104" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="198" t="s">
-        <v>249</v>
-      </c>
-      <c r="I23" s="199"/>
-      <c r="J23" s="228"/>
-      <c r="K23" s="229"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="262" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="357"/>
+      <c r="F23" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="102" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="215" t="s">
+        <v>245</v>
+      </c>
+      <c r="I23" s="337"/>
+      <c r="J23" s="202"/>
+      <c r="K23" s="204"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -5970,25 +5963,25 @@
       <c r="AB23" s="3"/>
     </row>
     <row r="24" spans="1:28" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="237"/>
+      <c r="A24" s="325"/>
       <c r="B24" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="215"/>
-      <c r="D24" s="210" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="210"/>
-      <c r="F24" s="184" t="s">
-        <v>286</v>
-      </c>
-      <c r="G24" s="184"/>
-      <c r="H24" s="197" t="s">
-        <v>171</v>
-      </c>
-      <c r="I24" s="197"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="194"/>
+      <c r="C24" s="225"/>
+      <c r="D24" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="E24" s="189"/>
+      <c r="F24" s="247" t="s">
+        <v>282</v>
+      </c>
+      <c r="G24" s="247"/>
+      <c r="H24" s="188" t="s">
+        <v>167</v>
+      </c>
+      <c r="I24" s="188"/>
+      <c r="J24" s="359"/>
+      <c r="K24" s="360"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -6008,27 +6001,27 @@
       <c r="AB24" s="3"/>
     </row>
     <row r="25" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="237"/>
+      <c r="A25" s="325"/>
       <c r="B25" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="239" t="s">
+      <c r="C25" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="267" t="s">
-        <v>275</v>
-      </c>
-      <c r="E25" s="204"/>
-      <c r="F25" s="197" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="197"/>
-      <c r="H25" s="197" t="s">
-        <v>223</v>
-      </c>
-      <c r="I25" s="205"/>
+      <c r="D25" s="302" t="s">
+        <v>271</v>
+      </c>
+      <c r="E25" s="183"/>
+      <c r="F25" s="188" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="188"/>
+      <c r="H25" s="188" t="s">
+        <v>219</v>
+      </c>
+      <c r="I25" s="195"/>
       <c r="J25" s="22"/>
-      <c r="K25" s="85"/>
+      <c r="K25" s="83"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -6048,27 +6041,27 @@
       <c r="AB25" s="3"/>
     </row>
     <row r="26" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="237"/>
+      <c r="A26" s="325"/>
       <c r="B26" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="214"/>
-      <c r="D26" s="187" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26" s="206"/>
-      <c r="F26" s="184" t="s">
-        <v>124</v>
-      </c>
-      <c r="G26" s="204"/>
-      <c r="H26" s="200" t="s">
-        <v>273</v>
-      </c>
-      <c r="I26" s="201"/>
-      <c r="J26" s="228" t="s">
-        <v>266</v>
-      </c>
-      <c r="K26" s="229"/>
+      <c r="C26" s="224"/>
+      <c r="D26" s="262" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="203"/>
+      <c r="F26" s="247" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="183"/>
+      <c r="H26" s="238" t="s">
+        <v>269</v>
+      </c>
+      <c r="I26" s="362"/>
+      <c r="J26" s="202" t="s">
+        <v>262</v>
+      </c>
+      <c r="K26" s="204"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -6088,27 +6081,27 @@
       <c r="AB26" s="3"/>
     </row>
     <row r="27" spans="1:28" ht="63" x14ac:dyDescent="0.25">
-      <c r="A27" s="237"/>
+      <c r="A27" s="325"/>
       <c r="B27" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="214"/>
-      <c r="D27" s="204" t="s">
-        <v>301</v>
-      </c>
-      <c r="E27" s="197"/>
-      <c r="F27" s="209" t="s">
-        <v>99</v>
-      </c>
-      <c r="G27" s="205"/>
+      <c r="C27" s="224"/>
+      <c r="D27" s="183" t="s">
+        <v>297</v>
+      </c>
+      <c r="E27" s="188"/>
+      <c r="F27" s="314" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="195"/>
       <c r="H27" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="144"/>
-      <c r="K27" s="101"/>
+        <v>73</v>
+      </c>
+      <c r="J27" s="141"/>
+      <c r="K27" s="99"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -6128,27 +6121,27 @@
       <c r="AB27" s="3"/>
     </row>
     <row r="28" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="237"/>
+      <c r="A28" s="325"/>
       <c r="B28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="214"/>
-      <c r="D28" s="204" t="s">
-        <v>251</v>
-      </c>
-      <c r="E28" s="197"/>
-      <c r="F28" s="279" t="s">
-        <v>143</v>
-      </c>
-      <c r="G28" s="279"/>
+      <c r="C28" s="224"/>
+      <c r="D28" s="183" t="s">
+        <v>247</v>
+      </c>
+      <c r="E28" s="188"/>
+      <c r="F28" s="315" t="s">
+        <v>139</v>
+      </c>
+      <c r="G28" s="315"/>
       <c r="H28" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="I28" s="182" t="s">
-        <v>279</v>
-      </c>
-      <c r="J28" s="183"/>
-      <c r="K28" s="122"/>
+        <v>124</v>
+      </c>
+      <c r="I28" s="354" t="s">
+        <v>275</v>
+      </c>
+      <c r="J28" s="192"/>
+      <c r="K28" s="120"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -6168,27 +6161,27 @@
       <c r="AB28" s="3"/>
     </row>
     <row r="29" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="237"/>
+      <c r="A29" s="325"/>
       <c r="B29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="214"/>
-      <c r="D29" s="204" t="s">
-        <v>246</v>
-      </c>
-      <c r="E29" s="203"/>
-      <c r="F29" s="209" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="205"/>
-      <c r="H29" s="197" t="s">
-        <v>238</v>
-      </c>
-      <c r="I29" s="197"/>
-      <c r="J29" s="204" t="s">
-        <v>240</v>
-      </c>
-      <c r="K29" s="319"/>
+      <c r="C29" s="224"/>
+      <c r="D29" s="183" t="s">
+        <v>242</v>
+      </c>
+      <c r="E29" s="182"/>
+      <c r="F29" s="314" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="195"/>
+      <c r="H29" s="188" t="s">
+        <v>234</v>
+      </c>
+      <c r="I29" s="188"/>
+      <c r="J29" s="183" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="235"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -6208,27 +6201,27 @@
       <c r="AB29" s="3"/>
     </row>
     <row r="30" spans="1:28" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="237"/>
+      <c r="A30" s="325"/>
       <c r="B30" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="214"/>
-      <c r="D30" s="159" t="s">
-        <v>134</v>
-      </c>
-      <c r="E30" s="106" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="191" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="192"/>
-      <c r="H30" s="280" t="s">
-        <v>51</v>
-      </c>
-      <c r="I30" s="191"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="196"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="156" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F30" s="317" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="358"/>
+      <c r="H30" s="316" t="s">
+        <v>48</v>
+      </c>
+      <c r="I30" s="317"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="361"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -6248,25 +6241,25 @@
       <c r="AB30" s="3"/>
     </row>
     <row r="31" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="237"/>
+      <c r="A31" s="325"/>
       <c r="B31" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="214"/>
-      <c r="D31" s="159" t="s">
-        <v>65</v>
+      <c r="C31" s="224"/>
+      <c r="D31" s="156" t="s">
+        <v>62</v>
       </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="197" t="s">
-        <v>281</v>
-      </c>
-      <c r="G31" s="205"/>
-      <c r="H31" s="224" t="s">
-        <v>257</v>
-      </c>
-      <c r="I31" s="225"/>
-      <c r="J31" s="226"/>
-      <c r="K31" s="227"/>
+      <c r="F31" s="188" t="s">
+        <v>277</v>
+      </c>
+      <c r="G31" s="195"/>
+      <c r="H31" s="346" t="s">
+        <v>253</v>
+      </c>
+      <c r="I31" s="347"/>
+      <c r="J31" s="348"/>
+      <c r="K31" s="349"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -6286,25 +6279,25 @@
       <c r="AB31" s="3"/>
     </row>
     <row r="32" spans="1:28" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="237"/>
+      <c r="A32" s="325"/>
       <c r="B32" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C32" s="215"/>
-      <c r="D32" s="198" t="s">
-        <v>116</v>
-      </c>
-      <c r="E32" s="199"/>
-      <c r="F32" s="230" t="s">
-        <v>318</v>
-      </c>
-      <c r="G32" s="216"/>
-      <c r="H32" s="257" t="s">
-        <v>265</v>
-      </c>
-      <c r="I32" s="257"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="256"/>
+      <c r="C32" s="225"/>
+      <c r="D32" s="215" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="337"/>
+      <c r="F32" s="322" t="s">
+        <v>314</v>
+      </c>
+      <c r="G32" s="276"/>
+      <c r="H32" s="211" t="s">
+        <v>261</v>
+      </c>
+      <c r="I32" s="211"/>
+      <c r="J32" s="332"/>
+      <c r="K32" s="333"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -6324,27 +6317,27 @@
       <c r="AB32" s="3"/>
     </row>
     <row r="33" spans="1:28" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="237"/>
+      <c r="A33" s="325"/>
       <c r="B33" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="95" t="s">
+      <c r="C33" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="260" t="s">
-        <v>234</v>
-      </c>
-      <c r="E33" s="261"/>
-      <c r="F33" s="230" t="s">
-        <v>307</v>
-      </c>
-      <c r="G33" s="199"/>
-      <c r="H33" s="230" t="s">
-        <v>90</v>
-      </c>
-      <c r="I33" s="199"/>
+      <c r="D33" s="336" t="s">
+        <v>230</v>
+      </c>
+      <c r="E33" s="213"/>
+      <c r="F33" s="322" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="337"/>
+      <c r="H33" s="322" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="337"/>
       <c r="J33" s="45"/>
-      <c r="K33" s="117"/>
+      <c r="K33" s="115"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6364,27 +6357,27 @@
       <c r="AB33" s="3"/>
     </row>
     <row r="34" spans="1:28" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="238"/>
+      <c r="A34" s="326"/>
       <c r="B34" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="96" t="s">
+      <c r="C34" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D34" s="302" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="303"/>
-      <c r="F34" s="253" t="s">
-        <v>221</v>
-      </c>
-      <c r="G34" s="254"/>
-      <c r="H34" s="258" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34" s="259"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="120"/>
+      <c r="D34" s="226" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="290"/>
+      <c r="F34" s="291" t="s">
+        <v>217</v>
+      </c>
+      <c r="G34" s="331"/>
+      <c r="H34" s="334" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="335"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="118"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -6405,18 +6398,18 @@
     </row>
     <row r="35" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30"/>
-      <c r="B35" s="246" t="s">
+      <c r="B35" s="323" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="231"/>
+      <c r="C35" s="234"/>
       <c r="D35" s="25"/>
       <c r="E35" s="26"/>
       <c r="F35" s="26"/>
       <c r="G35" s="26"/>
       <c r="H35" s="26"/>
       <c r="I35" s="27"/>
-      <c r="J35" s="79"/>
-      <c r="K35" s="121"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="119"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6436,13 +6429,13 @@
       <c r="AB35" s="3"/>
     </row>
     <row r="36" spans="1:28" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="309" t="s">
+      <c r="A36" s="296" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="152" t="s">
+      <c r="B36" s="149" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="153"/>
+      <c r="C36" s="150"/>
       <c r="D36" s="50" t="s">
         <v>3</v>
       </c>
@@ -6461,11 +6454,11 @@
       <c r="I36" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="J36" s="154" t="s">
+      <c r="J36" s="151" t="s">
         <v>9</v>
       </c>
-      <c r="K36" s="64" t="s">
-        <v>48</v>
+      <c r="K36" s="62" t="s">
+        <v>45</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -6486,29 +6479,29 @@
       <c r="AB36" s="3"/>
     </row>
     <row r="37" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="214"/>
+      <c r="A37" s="224"/>
       <c r="B37" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="247" t="s">
+      <c r="C37" s="324" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="104" t="s">
-        <v>60</v>
-      </c>
-      <c r="E37" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="F37" s="343" t="s">
-        <v>241</v>
-      </c>
-      <c r="G37" s="231"/>
-      <c r="H37" s="363" t="s">
-        <v>244</v>
-      </c>
-      <c r="I37" s="183"/>
-      <c r="J37" s="367"/>
-      <c r="K37" s="368"/>
+      <c r="D37" s="102" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" s="233" t="s">
+        <v>237</v>
+      </c>
+      <c r="G37" s="234"/>
+      <c r="H37" s="191" t="s">
+        <v>240</v>
+      </c>
+      <c r="I37" s="192"/>
+      <c r="J37" s="199"/>
+      <c r="K37" s="200"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6528,27 +6521,27 @@
       <c r="AB37" s="3"/>
     </row>
     <row r="38" spans="1:28" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="214"/>
+      <c r="A38" s="224"/>
       <c r="B38" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="237"/>
-      <c r="D38" s="207" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38" s="207"/>
+      <c r="C38" s="325"/>
+      <c r="D38" s="181" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="181"/>
       <c r="F38" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="200" t="s">
-        <v>125</v>
-      </c>
-      <c r="I38" s="200"/>
+        <v>76</v>
+      </c>
+      <c r="H38" s="238" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="238"/>
       <c r="J38" s="22"/>
-      <c r="K38" s="122"/>
+      <c r="K38" s="120"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6568,29 +6561,29 @@
       <c r="AB38" s="3"/>
     </row>
     <row r="39" spans="1:28" ht="65.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="214"/>
+      <c r="A39" s="224"/>
       <c r="B39" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="238"/>
-      <c r="D39" s="198" t="s">
-        <v>93</v>
-      </c>
-      <c r="E39" s="216"/>
-      <c r="F39" s="90" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="90" t="s">
-        <v>81</v>
+      <c r="C39" s="326"/>
+      <c r="D39" s="215" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="276"/>
+      <c r="F39" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="G39" s="88" t="s">
+        <v>78</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J39" s="251"/>
-      <c r="K39" s="252"/>
+        <v>140</v>
+      </c>
+      <c r="J39" s="329"/>
+      <c r="K39" s="330"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6610,31 +6603,31 @@
       <c r="AB39" s="3"/>
     </row>
     <row r="40" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="214"/>
+      <c r="A40" s="224"/>
       <c r="B40" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="248" t="s">
+      <c r="C40" s="327" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="207" t="s">
-        <v>166</v>
-      </c>
-      <c r="E40" s="207"/>
+      <c r="D40" s="181" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="181"/>
       <c r="F40" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="G40" s="106" t="s">
-        <v>119</v>
-      </c>
-      <c r="H40" s="203" t="s">
-        <v>208</v>
-      </c>
-      <c r="I40" s="204"/>
-      <c r="J40" s="203" t="s">
-        <v>260</v>
-      </c>
-      <c r="K40" s="275"/>
+        <v>289</v>
+      </c>
+      <c r="G40" s="104" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="182" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" s="183"/>
+      <c r="J40" s="182" t="s">
+        <v>256</v>
+      </c>
+      <c r="K40" s="201"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6654,25 +6647,25 @@
       <c r="AB40" s="3"/>
     </row>
     <row r="41" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="214"/>
+      <c r="A41" s="224"/>
       <c r="B41" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="237"/>
-      <c r="D41" s="207" t="s">
-        <v>254</v>
-      </c>
-      <c r="E41" s="291"/>
-      <c r="F41" s="203" t="s">
-        <v>122</v>
-      </c>
-      <c r="G41" s="204"/>
-      <c r="H41" s="203" t="s">
-        <v>202</v>
-      </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="128"/>
-      <c r="K41" s="137"/>
+      <c r="C41" s="325"/>
+      <c r="D41" s="181" t="s">
+        <v>250</v>
+      </c>
+      <c r="E41" s="210"/>
+      <c r="F41" s="182" t="s">
+        <v>119</v>
+      </c>
+      <c r="G41" s="183"/>
+      <c r="H41" s="182" t="s">
+        <v>198</v>
+      </c>
+      <c r="I41" s="183"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="135"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6692,27 +6685,27 @@
       <c r="AB41" s="3"/>
     </row>
     <row r="42" spans="1:28" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="214"/>
+      <c r="A42" s="224"/>
       <c r="B42" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="237"/>
-      <c r="D42" s="207" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="207"/>
-      <c r="F42" s="203" t="s">
-        <v>225</v>
-      </c>
-      <c r="G42" s="204"/>
-      <c r="H42" s="262" t="s">
-        <v>163</v>
-      </c>
-      <c r="I42" s="204"/>
-      <c r="J42" s="197" t="s">
-        <v>201</v>
-      </c>
-      <c r="K42" s="268"/>
+      <c r="C42" s="325"/>
+      <c r="D42" s="181" t="s">
+        <v>86</v>
+      </c>
+      <c r="E42" s="181"/>
+      <c r="F42" s="182" t="s">
+        <v>221</v>
+      </c>
+      <c r="G42" s="183"/>
+      <c r="H42" s="338" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42" s="183"/>
+      <c r="J42" s="188" t="s">
+        <v>197</v>
+      </c>
+      <c r="K42" s="303"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6732,27 +6725,27 @@
       <c r="AB42" s="3"/>
     </row>
     <row r="43" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="214"/>
+      <c r="A43" s="224"/>
       <c r="B43" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C43" s="237"/>
-      <c r="D43" s="207" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="234"/>
+      <c r="C43" s="325"/>
+      <c r="D43" s="181" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="219"/>
       <c r="F43" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="G43" s="197" t="s">
-        <v>300</v>
-      </c>
-      <c r="H43" s="205"/>
-      <c r="I43" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="J43" s="264"/>
-      <c r="K43" s="117"/>
+        <v>123</v>
+      </c>
+      <c r="G43" s="188" t="s">
+        <v>296</v>
+      </c>
+      <c r="H43" s="195"/>
+      <c r="I43" s="269" t="s">
+        <v>276</v>
+      </c>
+      <c r="J43" s="339"/>
+      <c r="K43" s="115"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6772,19 +6765,19 @@
       <c r="AB43" s="3"/>
     </row>
     <row r="44" spans="1:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="214"/>
+      <c r="A44" s="224"/>
       <c r="B44" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="237"/>
-      <c r="D44" s="249"/>
-      <c r="E44" s="250"/>
+      <c r="C44" s="325"/>
+      <c r="D44" s="328"/>
+      <c r="E44" s="258"/>
       <c r="F44" s="31"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="149"/>
-      <c r="I44" s="149"/>
-      <c r="J44" s="151"/>
-      <c r="K44" s="117"/>
+      <c r="G44" s="145"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="146"/>
+      <c r="J44" s="148"/>
+      <c r="K44" s="115"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6804,25 +6797,25 @@
       <c r="AB44" s="3"/>
     </row>
     <row r="45" spans="1:28" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="214"/>
+      <c r="A45" s="224"/>
       <c r="B45" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C45" s="237"/>
-      <c r="D45" s="364" t="s">
-        <v>247</v>
-      </c>
-      <c r="E45" s="365"/>
-      <c r="F45" s="316" t="s">
-        <v>231</v>
-      </c>
-      <c r="G45" s="317"/>
-      <c r="H45" s="197" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="205"/>
-      <c r="J45" s="278"/>
-      <c r="K45" s="245"/>
+      <c r="C45" s="325"/>
+      <c r="D45" s="193" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" s="194"/>
+      <c r="F45" s="267" t="s">
+        <v>227</v>
+      </c>
+      <c r="G45" s="268"/>
+      <c r="H45" s="188" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" s="195"/>
+      <c r="J45" s="298"/>
+      <c r="K45" s="313"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6842,25 +6835,25 @@
       <c r="AB45" s="3"/>
     </row>
     <row r="46" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="214"/>
+      <c r="A46" s="224"/>
       <c r="B46" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="237"/>
-      <c r="D46" s="308" t="s">
-        <v>216</v>
-      </c>
-      <c r="E46" s="235"/>
-      <c r="F46" s="314" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="315"/>
-      <c r="H46" s="314" t="s">
-        <v>49</v>
-      </c>
-      <c r="I46" s="315"/>
-      <c r="J46" s="91"/>
-      <c r="K46" s="123"/>
+      <c r="C46" s="325"/>
+      <c r="D46" s="294" t="s">
+        <v>212</v>
+      </c>
+      <c r="E46" s="295"/>
+      <c r="F46" s="231" t="s">
+        <v>48</v>
+      </c>
+      <c r="G46" s="232"/>
+      <c r="H46" s="231" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" s="232"/>
+      <c r="J46" s="89"/>
+      <c r="K46" s="121"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6880,27 +6873,27 @@
       <c r="AB46" s="3"/>
     </row>
     <row r="47" spans="1:28" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="214"/>
+      <c r="A47" s="224"/>
       <c r="B47" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="237"/>
-      <c r="D47" s="204" t="s">
-        <v>139</v>
-      </c>
-      <c r="E47" s="205"/>
-      <c r="F47" s="197" t="s">
-        <v>140</v>
-      </c>
-      <c r="G47" s="205"/>
-      <c r="H47" s="197" t="s">
-        <v>250</v>
-      </c>
-      <c r="I47" s="205"/>
-      <c r="J47" s="271" t="s">
-        <v>292</v>
-      </c>
-      <c r="K47" s="272"/>
+      <c r="C47" s="325"/>
+      <c r="D47" s="183" t="s">
+        <v>136</v>
+      </c>
+      <c r="E47" s="195"/>
+      <c r="F47" s="188" t="s">
+        <v>137</v>
+      </c>
+      <c r="G47" s="195"/>
+      <c r="H47" s="188" t="s">
+        <v>246</v>
+      </c>
+      <c r="I47" s="195"/>
+      <c r="J47" s="306" t="s">
+        <v>288</v>
+      </c>
+      <c r="K47" s="307"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6920,25 +6913,25 @@
       <c r="AB47" s="3"/>
     </row>
     <row r="48" spans="1:28" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="214"/>
+      <c r="A48" s="224"/>
       <c r="B48" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="238"/>
-      <c r="D48" s="204" t="s">
-        <v>110</v>
-      </c>
-      <c r="E48" s="205"/>
-      <c r="F48" s="197" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" s="205"/>
-      <c r="H48" s="197" t="s">
-        <v>111</v>
-      </c>
-      <c r="I48" s="205"/>
+      <c r="C48" s="326"/>
+      <c r="D48" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="195"/>
+      <c r="F48" s="188" t="s">
+        <v>231</v>
+      </c>
+      <c r="G48" s="195"/>
+      <c r="H48" s="188" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" s="195"/>
       <c r="J48" s="44"/>
-      <c r="K48" s="117"/>
+      <c r="K48" s="115"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6958,27 +6951,27 @@
       <c r="AB48" s="3"/>
     </row>
     <row r="49" spans="1:28" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="214"/>
-      <c r="B49" s="102" t="s">
+      <c r="A49" s="224"/>
+      <c r="B49" s="100" t="s">
         <v>23</v>
       </c>
-      <c r="C49" s="105" t="s">
+      <c r="C49" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="197" t="s">
-        <v>239</v>
-      </c>
-      <c r="E49" s="205"/>
-      <c r="F49" s="197" t="s">
-        <v>211</v>
-      </c>
-      <c r="G49" s="205"/>
-      <c r="H49" s="197" t="s">
+      <c r="D49" s="188" t="s">
+        <v>235</v>
+      </c>
+      <c r="E49" s="195"/>
+      <c r="F49" s="188" t="s">
         <v>207</v>
       </c>
-      <c r="I49" s="310"/>
-      <c r="J49" s="143"/>
-      <c r="K49" s="117"/>
+      <c r="G49" s="195"/>
+      <c r="H49" s="188" t="s">
+        <v>203</v>
+      </c>
+      <c r="I49" s="297"/>
+      <c r="J49" s="140"/>
+      <c r="K49" s="115"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6998,29 +6991,29 @@
       <c r="AB49" s="3"/>
     </row>
     <row r="50" spans="1:28" ht="53.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="215"/>
-      <c r="B50" s="103" t="s">
+      <c r="A50" s="225"/>
+      <c r="B50" s="101" t="s">
         <v>24</v>
       </c>
       <c r="C50" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="304" t="s">
-        <v>172</v>
-      </c>
-      <c r="E50" s="305"/>
+      <c r="D50" s="196" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="197"/>
       <c r="F50" s="36" t="s">
-        <v>64</v>
-      </c>
-      <c r="G50" s="276" t="s">
-        <v>276</v>
-      </c>
-      <c r="H50" s="277"/>
-      <c r="I50" s="358" t="s">
-        <v>267</v>
-      </c>
-      <c r="J50" s="358"/>
-      <c r="K50" s="124"/>
+        <v>61</v>
+      </c>
+      <c r="G50" s="311" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" s="312"/>
+      <c r="I50" s="177" t="s">
+        <v>263</v>
+      </c>
+      <c r="J50" s="177"/>
+      <c r="K50" s="122"/>
       <c r="L50" s="5"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7041,10 +7034,10 @@
     </row>
     <row r="51" spans="1:28" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="33"/>
-      <c r="B51" s="246" t="s">
+      <c r="B51" s="323" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="231"/>
+      <c r="C51" s="234"/>
       <c r="D51" s="25"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
@@ -7052,7 +7045,7 @@
       <c r="H51" s="43"/>
       <c r="I51" s="43"/>
       <c r="J51" s="43"/>
-      <c r="K51" s="125"/>
+      <c r="K51" s="123"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7072,36 +7065,36 @@
       <c r="AB51" s="3"/>
     </row>
     <row r="52" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="326" t="s">
+      <c r="A52" s="255" t="s">
         <v>30</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="69" t="s">
         <v>26</v>
       </c>
       <c r="C52" s="60"/>
-      <c r="D52" s="61" t="s">
+      <c r="D52" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="61" t="s">
+      <c r="F52" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="G52" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="141" t="s">
-        <v>7</v>
-      </c>
-      <c r="I52" s="141" t="s">
-        <v>8</v>
-      </c>
-      <c r="J52" s="62" t="s">
-        <v>9</v>
-      </c>
-      <c r="K52" s="64" t="s">
-        <v>48</v>
+      <c r="G52" s="51" t="s">
+        <v>315</v>
+      </c>
+      <c r="H52" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="I52" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="J52" s="52" t="s">
+        <v>318</v>
+      </c>
+      <c r="K52" s="62" t="s">
+        <v>319</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -7122,27 +7115,27 @@
       <c r="AB52" s="3"/>
     </row>
     <row r="53" spans="1:28" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="327"/>
-      <c r="B53" s="72" t="s">
+      <c r="A53" s="256"/>
+      <c r="B53" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="312" t="s">
+      <c r="C53" s="265" t="s">
         <v>11</v>
       </c>
-      <c r="D53" s="330" t="s">
-        <v>245</v>
-      </c>
-      <c r="E53" s="331"/>
-      <c r="F53" s="269" t="s">
-        <v>222</v>
-      </c>
-      <c r="G53" s="270"/>
-      <c r="H53" s="203" t="s">
-        <v>209</v>
-      </c>
-      <c r="I53" s="204"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="138"/>
+      <c r="D53" s="260" t="s">
+        <v>241</v>
+      </c>
+      <c r="E53" s="261"/>
+      <c r="F53" s="304" t="s">
+        <v>218</v>
+      </c>
+      <c r="G53" s="305"/>
+      <c r="H53" s="182" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="183"/>
+      <c r="J53" s="142"/>
+      <c r="K53" s="136"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7162,27 +7155,27 @@
       <c r="AB53" s="3"/>
     </row>
     <row r="54" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="327"/>
-      <c r="B54" s="73" t="s">
+      <c r="A54" s="256"/>
+      <c r="B54" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="205"/>
-      <c r="D54" s="197" t="s">
-        <v>131</v>
-      </c>
-      <c r="E54" s="205"/>
+      <c r="C54" s="195"/>
+      <c r="D54" s="188" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="195"/>
       <c r="F54" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="G54" s="197" t="s">
-        <v>248</v>
-      </c>
-      <c r="H54" s="205"/>
-      <c r="I54" s="203" t="s">
-        <v>226</v>
-      </c>
-      <c r="J54" s="204"/>
-      <c r="K54" s="140"/>
+        <v>57</v>
+      </c>
+      <c r="G54" s="188" t="s">
+        <v>244</v>
+      </c>
+      <c r="H54" s="195"/>
+      <c r="I54" s="182" t="s">
+        <v>222</v>
+      </c>
+      <c r="J54" s="183"/>
+      <c r="K54" s="138"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7202,31 +7195,31 @@
       <c r="AB54" s="3"/>
     </row>
     <row r="55" spans="1:28" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="327"/>
-      <c r="B55" s="73" t="s">
+      <c r="A55" s="256"/>
+      <c r="B55" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="C55" s="205"/>
+      <c r="C55" s="195"/>
       <c r="D55" s="22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F55" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="I55" s="263" t="s">
-        <v>285</v>
-      </c>
-      <c r="J55" s="318"/>
-      <c r="K55" s="117"/>
+        <v>126</v>
+      </c>
+      <c r="I55" s="269" t="s">
+        <v>281</v>
+      </c>
+      <c r="J55" s="270"/>
+      <c r="K55" s="115"/>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7246,33 +7239,33 @@
       <c r="AB55" s="3"/>
     </row>
     <row r="56" spans="1:28" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="327"/>
-      <c r="B56" s="73" t="s">
+      <c r="A56" s="256"/>
+      <c r="B56" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="313" t="s">
+      <c r="C56" s="266" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="22" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E56" s="22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F56" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="203" t="s">
-        <v>253</v>
-      </c>
-      <c r="I56" s="204"/>
-      <c r="J56" s="203" t="s">
-        <v>256</v>
-      </c>
-      <c r="K56" s="275"/>
+        <v>68</v>
+      </c>
+      <c r="H56" s="182" t="s">
+        <v>249</v>
+      </c>
+      <c r="I56" s="183"/>
+      <c r="J56" s="182" t="s">
+        <v>252</v>
+      </c>
+      <c r="K56" s="201"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7292,27 +7285,27 @@
       <c r="AB56" s="3"/>
     </row>
     <row r="57" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="327"/>
-      <c r="B57" s="73" t="s">
+      <c r="A57" s="256"/>
+      <c r="B57" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="205"/>
-      <c r="D57" s="324" t="s">
-        <v>146</v>
-      </c>
-      <c r="E57" s="325"/>
-      <c r="F57" s="203" t="s">
-        <v>169</v>
-      </c>
-      <c r="G57" s="204"/>
-      <c r="H57" s="197" t="s">
-        <v>108</v>
-      </c>
-      <c r="I57" s="205"/>
-      <c r="J57" s="197" t="s">
-        <v>291</v>
-      </c>
-      <c r="K57" s="319"/>
+      <c r="C57" s="195"/>
+      <c r="D57" s="253" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="254"/>
+      <c r="F57" s="182" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" s="183"/>
+      <c r="H57" s="188" t="s">
+        <v>105</v>
+      </c>
+      <c r="I57" s="195"/>
+      <c r="J57" s="188" t="s">
+        <v>287</v>
+      </c>
+      <c r="K57" s="235"/>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7332,29 +7325,29 @@
       <c r="AB57" s="3"/>
     </row>
     <row r="58" spans="1:28" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="327"/>
-      <c r="B58" s="73" t="s">
+      <c r="A58" s="256"/>
+      <c r="B58" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="205"/>
-      <c r="D58" s="203" t="s">
-        <v>303</v>
-      </c>
-      <c r="E58" s="204"/>
+      <c r="C58" s="195"/>
+      <c r="D58" s="182" t="s">
+        <v>299</v>
+      </c>
+      <c r="E58" s="183"/>
       <c r="F58" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="H58" s="203" t="s">
-        <v>263</v>
-      </c>
-      <c r="I58" s="204"/>
-      <c r="J58" s="344" t="s">
-        <v>261</v>
-      </c>
-      <c r="K58" s="345"/>
+        <v>88</v>
+      </c>
+      <c r="H58" s="182" t="s">
+        <v>259</v>
+      </c>
+      <c r="I58" s="183"/>
+      <c r="J58" s="236" t="s">
+        <v>257</v>
+      </c>
+      <c r="K58" s="237"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7374,27 +7367,27 @@
       <c r="AB58" s="3"/>
     </row>
     <row r="59" spans="1:28" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="327"/>
-      <c r="B59" s="73" t="s">
+      <c r="A59" s="256"/>
+      <c r="B59" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="205"/>
-      <c r="D59" s="197" t="s">
-        <v>298</v>
-      </c>
-      <c r="E59" s="205"/>
-      <c r="F59" s="197" t="s">
-        <v>103</v>
-      </c>
-      <c r="G59" s="205"/>
-      <c r="H59" s="203" t="s">
-        <v>297</v>
-      </c>
-      <c r="I59" s="204"/>
-      <c r="J59" s="356" t="s">
-        <v>196</v>
-      </c>
-      <c r="K59" s="357"/>
+      <c r="C59" s="195"/>
+      <c r="D59" s="188" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="195"/>
+      <c r="F59" s="188" t="s">
+        <v>100</v>
+      </c>
+      <c r="G59" s="195"/>
+      <c r="H59" s="182" t="s">
+        <v>293</v>
+      </c>
+      <c r="I59" s="183"/>
+      <c r="J59" s="221" t="s">
+        <v>192</v>
+      </c>
+      <c r="K59" s="222"/>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7414,29 +7407,29 @@
       <c r="AB59" s="3"/>
     </row>
     <row r="60" spans="1:28" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="327"/>
-      <c r="B60" s="73" t="s">
+      <c r="A60" s="256"/>
+      <c r="B60" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="C60" s="205"/>
-      <c r="D60" s="197" t="s">
-        <v>299</v>
-      </c>
-      <c r="E60" s="205"/>
+      <c r="C60" s="195"/>
+      <c r="D60" s="188" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="195"/>
       <c r="F60" s="22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G60" s="22" t="s">
-        <v>107</v>
-      </c>
-      <c r="H60" s="203" t="s">
-        <v>92</v>
-      </c>
-      <c r="I60" s="204"/>
-      <c r="J60" s="197" t="s">
-        <v>194</v>
-      </c>
-      <c r="K60" s="319"/>
+        <v>104</v>
+      </c>
+      <c r="H60" s="182" t="s">
+        <v>89</v>
+      </c>
+      <c r="I60" s="183"/>
+      <c r="J60" s="188" t="s">
+        <v>190</v>
+      </c>
+      <c r="K60" s="235"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7456,25 +7449,25 @@
       <c r="AB60" s="3"/>
     </row>
     <row r="61" spans="1:28" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="327"/>
-      <c r="B61" s="73" t="s">
+      <c r="A61" s="256"/>
+      <c r="B61" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="205"/>
-      <c r="D61" s="203" t="s">
-        <v>217</v>
-      </c>
-      <c r="E61" s="204"/>
-      <c r="F61" s="273" t="s">
-        <v>51</v>
-      </c>
-      <c r="G61" s="274"/>
-      <c r="H61" s="273" t="s">
-        <v>51</v>
-      </c>
-      <c r="I61" s="274"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="158"/>
+      <c r="C61" s="195"/>
+      <c r="D61" s="182" t="s">
+        <v>213</v>
+      </c>
+      <c r="E61" s="183"/>
+      <c r="F61" s="309" t="s">
+        <v>48</v>
+      </c>
+      <c r="G61" s="310"/>
+      <c r="H61" s="309" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="310"/>
+      <c r="J61" s="142"/>
+      <c r="K61" s="155"/>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7494,27 +7487,27 @@
       <c r="AB61" s="3"/>
     </row>
     <row r="62" spans="1:28" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="327"/>
-      <c r="B62" s="73" t="s">
+      <c r="A62" s="256"/>
+      <c r="B62" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="C62" s="329" t="s">
+      <c r="C62" s="259" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="197" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="205"/>
-      <c r="F62" s="197" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="205"/>
-      <c r="H62" s="197" t="s">
-        <v>167</v>
-      </c>
-      <c r="I62" s="205"/>
-      <c r="J62" s="350"/>
-      <c r="K62" s="351"/>
+      <c r="D62" s="188" t="s">
+        <v>138</v>
+      </c>
+      <c r="E62" s="195"/>
+      <c r="F62" s="188" t="s">
+        <v>169</v>
+      </c>
+      <c r="G62" s="195"/>
+      <c r="H62" s="188" t="s">
+        <v>163</v>
+      </c>
+      <c r="I62" s="195"/>
+      <c r="J62" s="242"/>
+      <c r="K62" s="243"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7534,25 +7527,25 @@
       <c r="AB62" s="3"/>
     </row>
     <row r="63" spans="1:28" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="327"/>
-      <c r="B63" s="73" t="s">
+      <c r="A63" s="256"/>
+      <c r="B63" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="205"/>
-      <c r="D63" s="197" t="s">
-        <v>112</v>
-      </c>
-      <c r="E63" s="205"/>
-      <c r="F63" s="197" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="205"/>
-      <c r="H63" s="197" t="s">
-        <v>193</v>
-      </c>
-      <c r="I63" s="205"/>
-      <c r="J63" s="341"/>
-      <c r="K63" s="342"/>
+      <c r="C63" s="195"/>
+      <c r="D63" s="188" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="195"/>
+      <c r="F63" s="188" t="s">
+        <v>110</v>
+      </c>
+      <c r="G63" s="195"/>
+      <c r="H63" s="188" t="s">
+        <v>189</v>
+      </c>
+      <c r="I63" s="195"/>
+      <c r="J63" s="229"/>
+      <c r="K63" s="230"/>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7572,27 +7565,27 @@
       <c r="AB63" s="3"/>
     </row>
     <row r="64" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="327"/>
-      <c r="B64" s="73" t="s">
+      <c r="A64" s="256"/>
+      <c r="B64" s="71" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="D64" s="197" t="s">
-        <v>236</v>
-      </c>
-      <c r="E64" s="205"/>
-      <c r="F64" s="197" t="s">
-        <v>287</v>
-      </c>
-      <c r="G64" s="205"/>
-      <c r="H64" s="197" t="s">
-        <v>242</v>
-      </c>
-      <c r="I64" s="205"/>
+      <c r="D64" s="188" t="s">
+        <v>232</v>
+      </c>
+      <c r="E64" s="195"/>
+      <c r="F64" s="188" t="s">
+        <v>283</v>
+      </c>
+      <c r="G64" s="195"/>
+      <c r="H64" s="188" t="s">
+        <v>238</v>
+      </c>
+      <c r="I64" s="195"/>
       <c r="J64" s="46"/>
-      <c r="K64" s="117"/>
+      <c r="K64" s="115"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7612,33 +7605,33 @@
       <c r="AB64" s="3"/>
     </row>
     <row r="65" spans="1:28" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="328"/>
-      <c r="B65" s="74" t="s">
+      <c r="A65" s="257"/>
+      <c r="B65" s="72" t="s">
         <v>24</v>
       </c>
       <c r="C65" s="35" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="36" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E65" s="36" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F65" s="22" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H65" s="107" t="s">
-        <v>123</v>
-      </c>
-      <c r="I65" s="109" t="s">
-        <v>144</v>
-      </c>
-      <c r="J65" s="92"/>
-      <c r="K65" s="118"/>
+        <v>58</v>
+      </c>
+      <c r="H65" s="105" t="s">
+        <v>120</v>
+      </c>
+      <c r="I65" s="107" t="s">
+        <v>140</v>
+      </c>
+      <c r="J65" s="90"/>
+      <c r="K65" s="116"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7658,19 +7651,19 @@
       <c r="AB65" s="3"/>
     </row>
     <row r="66" spans="1:28" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="76"/>
-      <c r="B66" s="281" t="s">
+      <c r="A66" s="74"/>
+      <c r="B66" s="271" t="s">
         <v>32</v>
       </c>
-      <c r="C66" s="282"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="78"/>
-      <c r="F66" s="78"/>
-      <c r="G66" s="78"/>
-      <c r="H66" s="78"/>
-      <c r="I66" s="78"/>
-      <c r="J66" s="78"/>
-      <c r="K66" s="125"/>
+      <c r="C66" s="272"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="76"/>
+      <c r="F66" s="76"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="76"/>
+      <c r="I66" s="76"/>
+      <c r="J66" s="76"/>
+      <c r="K66" s="123"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7690,36 +7683,36 @@
       <c r="AB66" s="3"/>
     </row>
     <row r="67" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="320" t="s">
+      <c r="A67" s="248" t="s">
         <v>33</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="98"/>
-      <c r="D67" s="67" t="s">
+      <c r="C67" s="96"/>
+      <c r="D67" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="E67" s="68" t="s">
+      <c r="E67" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="F67" s="68" t="s">
+      <c r="F67" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="G67" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="H67" s="347" t="s">
-        <v>43</v>
-      </c>
-      <c r="I67" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="J67" s="63" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" s="64" t="s">
-        <v>142</v>
+      <c r="G67" s="78" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" s="239" t="s">
+        <v>40</v>
+      </c>
+      <c r="I67" s="79" t="s">
+        <v>321</v>
+      </c>
+      <c r="J67" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="K67" s="62" t="s">
+        <v>323</v>
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
@@ -7740,67 +7733,67 @@
       <c r="AB67" s="3"/>
     </row>
     <row r="68" spans="1:28" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="321"/>
-      <c r="B68" s="99" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" s="257" t="s">
-        <v>145</v>
-      </c>
-      <c r="E68" s="257"/>
-      <c r="F68" s="257" t="s">
+      <c r="A68" s="249"/>
+      <c r="B68" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="C68" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="G68" s="243"/>
-      <c r="H68" s="348"/>
-      <c r="I68" s="257" t="s">
-        <v>148</v>
-      </c>
-      <c r="J68" s="257"/>
-      <c r="K68" s="97"/>
-      <c r="L68" s="65"/>
-      <c r="M68" s="65"/>
-      <c r="N68" s="65"/>
-      <c r="O68" s="65"/>
-      <c r="P68" s="65"/>
-      <c r="Q68" s="65"/>
-      <c r="R68" s="65"/>
-      <c r="S68" s="65"/>
-      <c r="T68" s="65"/>
-      <c r="U68" s="65"/>
-      <c r="V68" s="65"/>
-      <c r="W68" s="65"/>
-      <c r="X68" s="65"/>
-      <c r="Y68" s="65"/>
-      <c r="Z68" s="65"/>
-      <c r="AA68" s="66"/>
-      <c r="AB68" s="66"/>
+      <c r="D68" s="211" t="s">
+        <v>141</v>
+      </c>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="308"/>
+      <c r="H68" s="240"/>
+      <c r="I68" s="211" t="s">
+        <v>144</v>
+      </c>
+      <c r="J68" s="211"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="63"/>
+      <c r="U68" s="63"/>
+      <c r="V68" s="63"/>
+      <c r="W68" s="63"/>
+      <c r="X68" s="63"/>
+      <c r="Y68" s="63"/>
+      <c r="Z68" s="63"/>
+      <c r="AA68" s="64"/>
+      <c r="AB68" s="64"/>
     </row>
     <row r="69" spans="1:28" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="322"/>
+      <c r="A69" s="250"/>
       <c r="B69" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C69" s="213" t="s">
-        <v>40</v>
-      </c>
-      <c r="D69" s="335" t="s">
-        <v>100</v>
-      </c>
-      <c r="E69" s="257"/>
-      <c r="F69" s="332" t="s">
-        <v>304</v>
-      </c>
-      <c r="G69" s="291"/>
-      <c r="H69" s="348"/>
-      <c r="I69" s="335" t="s">
-        <v>147</v>
-      </c>
-      <c r="J69" s="257"/>
-      <c r="K69" s="126"/>
+      <c r="C69" s="246" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="214" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" s="211"/>
+      <c r="F69" s="218" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="210"/>
+      <c r="H69" s="240"/>
+      <c r="I69" s="214" t="s">
+        <v>143</v>
+      </c>
+      <c r="J69" s="211"/>
+      <c r="K69" s="124"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7820,25 +7813,25 @@
       <c r="AB69" s="3"/>
     </row>
     <row r="70" spans="1:28" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="322"/>
+      <c r="A70" s="250"/>
       <c r="B70" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="214"/>
-      <c r="D70" s="198" t="s">
-        <v>269</v>
-      </c>
-      <c r="E70" s="338"/>
-      <c r="F70" s="197" t="s">
-        <v>132</v>
-      </c>
-      <c r="G70" s="203"/>
-      <c r="H70" s="348"/>
-      <c r="I70" s="195" t="s">
-        <v>214</v>
-      </c>
-      <c r="J70" s="195"/>
-      <c r="K70" s="117"/>
+      <c r="C70" s="224"/>
+      <c r="D70" s="215" t="s">
+        <v>265</v>
+      </c>
+      <c r="E70" s="216"/>
+      <c r="F70" s="188" t="s">
+        <v>129</v>
+      </c>
+      <c r="G70" s="182"/>
+      <c r="H70" s="240"/>
+      <c r="I70" s="217" t="s">
+        <v>210</v>
+      </c>
+      <c r="J70" s="217"/>
+      <c r="K70" s="115"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7858,27 +7851,27 @@
       <c r="AB70" s="3"/>
     </row>
     <row r="71" spans="1:28" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="322"/>
+      <c r="A71" s="250"/>
       <c r="B71" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="215"/>
-      <c r="D71" s="198" t="s">
-        <v>255</v>
-      </c>
-      <c r="E71" s="338"/>
+      <c r="C71" s="225"/>
+      <c r="D71" s="215" t="s">
+        <v>251</v>
+      </c>
+      <c r="E71" s="216"/>
       <c r="F71" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G71" s="86" t="s">
-        <v>106</v>
-      </c>
-      <c r="H71" s="348"/>
-      <c r="I71" s="346" t="s">
-        <v>159</v>
-      </c>
-      <c r="J71" s="291"/>
-      <c r="K71" s="117"/>
+        <v>58</v>
+      </c>
+      <c r="G71" s="84" t="s">
+        <v>103</v>
+      </c>
+      <c r="H71" s="240"/>
+      <c r="I71" s="209" t="s">
+        <v>155</v>
+      </c>
+      <c r="J71" s="210"/>
+      <c r="K71" s="115"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -7898,27 +7891,27 @@
       <c r="AB71" s="3"/>
     </row>
     <row r="72" spans="1:28" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="322"/>
+      <c r="A72" s="250"/>
       <c r="B72" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C72" s="239" t="s">
+      <c r="C72" s="223" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="187" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="333"/>
-      <c r="F72" s="203" t="s">
-        <v>150</v>
-      </c>
-      <c r="G72" s="204"/>
-      <c r="H72" s="348"/>
-      <c r="I72" s="346" t="s">
-        <v>151</v>
-      </c>
-      <c r="J72" s="291"/>
-      <c r="K72" s="117"/>
+      <c r="D72" s="262" t="s">
+        <v>171</v>
+      </c>
+      <c r="E72" s="263"/>
+      <c r="F72" s="182" t="s">
+        <v>146</v>
+      </c>
+      <c r="G72" s="183"/>
+      <c r="H72" s="240"/>
+      <c r="I72" s="209" t="s">
+        <v>147</v>
+      </c>
+      <c r="J72" s="210"/>
+      <c r="K72" s="115"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -7938,25 +7931,25 @@
       <c r="AB72" s="3"/>
     </row>
     <row r="73" spans="1:28" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="322"/>
+      <c r="A73" s="250"/>
       <c r="B73" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="214"/>
-      <c r="D73" s="354" t="s">
-        <v>272</v>
-      </c>
-      <c r="E73" s="261"/>
-      <c r="F73" s="334" t="s">
-        <v>53</v>
-      </c>
-      <c r="G73" s="293"/>
-      <c r="H73" s="348"/>
-      <c r="I73" s="346" t="s">
-        <v>290</v>
-      </c>
-      <c r="J73" s="291"/>
-      <c r="K73" s="117"/>
+      <c r="C73" s="224"/>
+      <c r="D73" s="212" t="s">
+        <v>268</v>
+      </c>
+      <c r="E73" s="213"/>
+      <c r="F73" s="264" t="s">
+        <v>50</v>
+      </c>
+      <c r="G73" s="208"/>
+      <c r="H73" s="240"/>
+      <c r="I73" s="209" t="s">
+        <v>286</v>
+      </c>
+      <c r="J73" s="210"/>
+      <c r="K73" s="115"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -7976,27 +7969,27 @@
       <c r="AB73" s="3"/>
     </row>
     <row r="74" spans="1:28" ht="93" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="322"/>
+      <c r="A74" s="250"/>
       <c r="B74" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C74" s="214"/>
-      <c r="D74" s="207" t="s">
-        <v>59</v>
-      </c>
-      <c r="E74" s="293"/>
-      <c r="F74" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" s="94" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" s="348"/>
-      <c r="I74" s="346" t="s">
-        <v>190</v>
-      </c>
-      <c r="J74" s="291"/>
-      <c r="K74" s="115"/>
+      <c r="C74" s="224"/>
+      <c r="D74" s="181" t="s">
+        <v>56</v>
+      </c>
+      <c r="E74" s="208"/>
+      <c r="F74" s="91" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" s="240"/>
+      <c r="I74" s="209" t="s">
+        <v>186</v>
+      </c>
+      <c r="J74" s="210"/>
+      <c r="K74" s="113"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8016,27 +8009,27 @@
       <c r="AB74" s="3"/>
     </row>
     <row r="75" spans="1:28" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="322"/>
+      <c r="A75" s="250"/>
       <c r="B75" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C75" s="214"/>
-      <c r="D75" s="87" t="s">
-        <v>66</v>
+      <c r="C75" s="224"/>
+      <c r="D75" s="85" t="s">
+        <v>63</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="F75" s="335" t="s">
-        <v>115</v>
-      </c>
-      <c r="G75" s="257"/>
-      <c r="H75" s="348"/>
-      <c r="I75" s="346" t="s">
-        <v>220</v>
-      </c>
-      <c r="J75" s="291"/>
-      <c r="K75" s="117"/>
+        <v>64</v>
+      </c>
+      <c r="F75" s="214" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="211"/>
+      <c r="H75" s="240"/>
+      <c r="I75" s="209" t="s">
+        <v>216</v>
+      </c>
+      <c r="J75" s="210"/>
+      <c r="K75" s="115"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8056,25 +8049,25 @@
       <c r="AB75" s="3"/>
     </row>
     <row r="76" spans="1:28" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="322"/>
+      <c r="A76" s="250"/>
       <c r="B76" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="214"/>
-      <c r="D76" s="207" t="s">
-        <v>224</v>
-      </c>
-      <c r="E76" s="355"/>
-      <c r="F76" s="332" t="s">
-        <v>296</v>
-      </c>
-      <c r="G76" s="291"/>
-      <c r="H76" s="348"/>
-      <c r="I76" s="207" t="s">
-        <v>288</v>
-      </c>
-      <c r="J76" s="291"/>
-      <c r="K76" s="117"/>
+      <c r="C76" s="224"/>
+      <c r="D76" s="181" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="220"/>
+      <c r="F76" s="218" t="s">
+        <v>292</v>
+      </c>
+      <c r="G76" s="210"/>
+      <c r="H76" s="240"/>
+      <c r="I76" s="181" t="s">
+        <v>284</v>
+      </c>
+      <c r="J76" s="210"/>
+      <c r="K76" s="115"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8094,23 +8087,23 @@
       <c r="AB76" s="3"/>
     </row>
     <row r="77" spans="1:28" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="322"/>
+      <c r="A77" s="250"/>
       <c r="B77" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="214"/>
-      <c r="D77" s="207"/>
-      <c r="E77" s="234"/>
-      <c r="F77" s="336" t="s">
-        <v>51</v>
-      </c>
-      <c r="G77" s="337"/>
-      <c r="H77" s="348"/>
-      <c r="I77" s="336" t="s">
-        <v>44</v>
-      </c>
-      <c r="J77" s="337"/>
-      <c r="K77" s="127"/>
+      <c r="C77" s="224"/>
+      <c r="D77" s="181"/>
+      <c r="E77" s="219"/>
+      <c r="F77" s="205" t="s">
+        <v>48</v>
+      </c>
+      <c r="G77" s="206"/>
+      <c r="H77" s="240"/>
+      <c r="I77" s="205" t="s">
+        <v>41</v>
+      </c>
+      <c r="J77" s="206"/>
+      <c r="K77" s="125"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8130,25 +8123,25 @@
       <c r="AB77" s="3"/>
     </row>
     <row r="78" spans="1:28" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="322"/>
+      <c r="A78" s="250"/>
       <c r="B78" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="214"/>
-      <c r="D78" s="207" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" s="250"/>
-      <c r="F78" s="332" t="s">
-        <v>227</v>
-      </c>
-      <c r="G78" s="291"/>
-      <c r="H78" s="348"/>
-      <c r="I78" s="207" t="s">
-        <v>262</v>
-      </c>
-      <c r="J78" s="291"/>
-      <c r="K78" s="117"/>
+      <c r="C78" s="224"/>
+      <c r="D78" s="181" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="258"/>
+      <c r="F78" s="218" t="s">
+        <v>223</v>
+      </c>
+      <c r="G78" s="210"/>
+      <c r="H78" s="240"/>
+      <c r="I78" s="181" t="s">
+        <v>258</v>
+      </c>
+      <c r="J78" s="210"/>
+      <c r="K78" s="115"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -8168,19 +8161,19 @@
       <c r="AB78" s="3"/>
     </row>
     <row r="79" spans="1:28" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="322"/>
+      <c r="A79" s="250"/>
       <c r="B79" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="214"/>
+      <c r="C79" s="224"/>
       <c r="D79" s="20"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="38"/>
-      <c r="H79" s="348"/>
+      <c r="H79" s="240"/>
       <c r="I79" s="39"/>
       <c r="J79" s="47"/>
-      <c r="K79" s="117"/>
+      <c r="K79" s="115"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -8200,23 +8193,23 @@
       <c r="AB79" s="3"/>
     </row>
     <row r="80" spans="1:28" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="322"/>
+      <c r="A80" s="250"/>
       <c r="B80" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="215"/>
-      <c r="D80" s="207" t="s">
-        <v>252</v>
-      </c>
-      <c r="E80" s="250"/>
-      <c r="F80" s="332" t="s">
-        <v>174</v>
-      </c>
-      <c r="G80" s="291"/>
-      <c r="H80" s="348"/>
-      <c r="I80" s="207"/>
-      <c r="J80" s="291"/>
-      <c r="K80" s="117"/>
+      <c r="C80" s="225"/>
+      <c r="D80" s="181" t="s">
+        <v>248</v>
+      </c>
+      <c r="E80" s="258"/>
+      <c r="F80" s="218" t="s">
+        <v>170</v>
+      </c>
+      <c r="G80" s="210"/>
+      <c r="H80" s="240"/>
+      <c r="I80" s="181"/>
+      <c r="J80" s="210"/>
+      <c r="K80" s="115"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -8236,27 +8229,27 @@
       <c r="AB80" s="3"/>
     </row>
     <row r="81" spans="1:28" ht="50.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="322"/>
+      <c r="A81" s="250"/>
       <c r="B81" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="D81" s="200" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="289"/>
-      <c r="F81" s="222" t="s">
-        <v>198</v>
-      </c>
-      <c r="G81" s="293"/>
-      <c r="H81" s="348"/>
-      <c r="I81" s="340" t="s">
-        <v>212</v>
-      </c>
-      <c r="J81" s="291"/>
-      <c r="K81" s="117"/>
+      <c r="D81" s="238" t="s">
+        <v>206</v>
+      </c>
+      <c r="E81" s="252"/>
+      <c r="F81" s="207" t="s">
+        <v>194</v>
+      </c>
+      <c r="G81" s="208"/>
+      <c r="H81" s="240"/>
+      <c r="I81" s="228" t="s">
+        <v>208</v>
+      </c>
+      <c r="J81" s="210"/>
+      <c r="K81" s="115"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -8276,27 +8269,27 @@
       <c r="AB81" s="3"/>
     </row>
     <row r="82" spans="1:28" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="323"/>
+      <c r="A82" s="251"/>
       <c r="B82" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C82" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="265" t="s">
-        <v>274</v>
-      </c>
-      <c r="E82" s="266"/>
-      <c r="F82" s="358" t="s">
+      <c r="D82" s="300" t="s">
         <v>270</v>
       </c>
-      <c r="G82" s="359"/>
-      <c r="H82" s="349"/>
-      <c r="I82" s="302" t="s">
-        <v>213</v>
-      </c>
-      <c r="J82" s="339"/>
-      <c r="K82" s="118"/>
+      <c r="E82" s="301"/>
+      <c r="F82" s="177" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" s="178"/>
+      <c r="H82" s="241"/>
+      <c r="I82" s="226" t="s">
+        <v>209</v>
+      </c>
+      <c r="J82" s="227"/>
+      <c r="K82" s="116"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -35827,6 +35820,206 @@
     </row>
   </sheetData>
   <mergeCells count="224">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C69:C71"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A21:A34"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="G1:J2"/>
+    <mergeCell ref="A2:E4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="C10:C19"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A36:A50"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C61"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="A67:A82"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A52:A65"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="C72:C80"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="H67:H82"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="F62:G62"/>
     <mergeCell ref="F82:G82"/>
     <mergeCell ref="I13:J13"/>
     <mergeCell ref="D38:E38"/>
@@ -35851,206 +36044,6 @@
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="J26:K26"/>
     <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="C72:C80"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="H67:H82"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="A67:A82"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A52:A65"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="C53:C55"/>
-    <mergeCell ref="C56:C61"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="G1:J2"/>
-    <mergeCell ref="A2:E4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="C10:C19"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A36:A50"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="C69:C71"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A21:A34"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.216187305364964" right="0.14099172089019399" top="0.26" bottom="0.25" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -36077,364 +36070,364 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="160"/>
-      <c r="B1" s="369" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="370"/>
-      <c r="D1" s="161"/>
-      <c r="E1" s="162"/>
-      <c r="F1" s="162"/>
+      <c r="A1" s="157"/>
+      <c r="B1" s="366" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="367"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="371" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="163" t="s">
+      <c r="A2" s="368" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="163"/>
-      <c r="D2" s="164" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" s="164" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="165" t="s">
-        <v>47</v>
+      <c r="C2" s="160"/>
+      <c r="D2" s="161" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="161" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="162" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A3" s="372"/>
-      <c r="B3" s="132" t="s">
+      <c r="A3" s="369"/>
+      <c r="B3" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="131"/>
+      <c r="C3" s="129"/>
       <c r="D3" s="10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="F3" s="163"/>
+    </row>
+    <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A4" s="369"/>
+      <c r="B4" s="130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="129"/>
+      <c r="D4" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F3" s="166"/>
-    </row>
-    <row r="4" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A4" s="372"/>
-      <c r="B4" s="132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="131"/>
-      <c r="D4" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="F4" s="167"/>
+      <c r="F4" s="164"/>
     </row>
     <row r="5" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="372"/>
-      <c r="B5" s="132" t="s">
+      <c r="A5" s="369"/>
+      <c r="B5" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="131"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="10" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" s="166"/>
+        <v>148</v>
+      </c>
+      <c r="F5" s="163"/>
     </row>
     <row r="6" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="373"/>
-      <c r="B6" s="131" t="s">
+      <c r="A6" s="370"/>
+      <c r="B6" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="374"/>
+      <c r="C6" s="371"/>
       <c r="D6" s="11"/>
       <c r="E6" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F6" s="166" t="s">
-        <v>315</v>
+        <v>291</v>
+      </c>
+      <c r="F6" s="163" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A7" s="373"/>
-      <c r="B7" s="131" t="s">
+      <c r="A7" s="370"/>
+      <c r="B7" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="375"/>
+      <c r="C7" s="372"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F7" s="163" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="370"/>
+      <c r="B8" s="129" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="372"/>
+      <c r="D8" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="165"/>
+    </row>
+    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A9" s="370"/>
+      <c r="B9" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="372"/>
+      <c r="D9" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" s="164"/>
+    </row>
+    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A10" s="370"/>
+      <c r="B10" s="129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="372"/>
+      <c r="D10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="F10" s="163" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="370"/>
+      <c r="B11" s="130" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="131"/>
+      <c r="D11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F11" s="163" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A12" s="370"/>
+      <c r="B12" s="129" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="131"/>
+      <c r="E12" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="166" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A13" s="370"/>
+      <c r="B13" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="132"/>
+      <c r="D13" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="163" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="373" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="374"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="167"/>
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="375" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="129"/>
+      <c r="D15" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="168" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A16" s="376"/>
+      <c r="B16" s="130" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="166" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="373"/>
-      <c r="B8" s="131" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="375"/>
-      <c r="D8" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F8" s="168"/>
-    </row>
-    <row r="9" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A9" s="373"/>
-      <c r="B9" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="375"/>
-      <c r="D9" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F9" s="167"/>
-    </row>
-    <row r="10" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A10" s="373"/>
-      <c r="B10" s="131" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="375"/>
-      <c r="D10" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F10" s="166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="373"/>
-      <c r="B11" s="132" t="s">
-        <v>184</v>
-      </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="F11" s="166" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A12" s="373"/>
-      <c r="B12" s="131" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="133"/>
-      <c r="E12" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F12" s="169" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A13" s="373"/>
-      <c r="B13" s="131" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="134"/>
-      <c r="D13" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F13" s="166" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="108"/>
-      <c r="B14" s="376" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="377"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="170"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="378" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="131"/>
-      <c r="D15" s="82" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="82" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="171" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A16" s="379"/>
-      <c r="B16" s="132" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="131"/>
-      <c r="D16" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="F16" s="166"/>
+      <c r="F16" s="163"/>
     </row>
     <row r="17" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A17" s="379"/>
-      <c r="B17" s="132" t="s">
+      <c r="A17" s="376"/>
+      <c r="B17" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="131"/>
+      <c r="C17" s="129"/>
       <c r="D17" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="F17" s="166" t="s">
-        <v>312</v>
+        <v>301</v>
+      </c>
+      <c r="F17" s="163" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A18" s="379"/>
-      <c r="B18" s="132" t="s">
+      <c r="A18" s="376"/>
+      <c r="B18" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="131"/>
+      <c r="C18" s="129"/>
       <c r="D18" s="10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F18" s="171"/>
+        <v>151</v>
+      </c>
+      <c r="F18" s="168"/>
     </row>
     <row r="19" spans="1:6" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="379"/>
-      <c r="B19" s="131" t="s">
+      <c r="A19" s="376"/>
+      <c r="B19" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="374"/>
+      <c r="C19" s="371"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="F19" s="166" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="F19" s="163" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A20" s="379"/>
-      <c r="B20" s="131" t="s">
+      <c r="A20" s="376"/>
+      <c r="B20" s="129" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="375"/>
+      <c r="C20" s="372"/>
       <c r="D20" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F20" s="172"/>
+        <v>177</v>
+      </c>
+      <c r="F20" s="169"/>
     </row>
     <row r="21" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A21" s="379"/>
-      <c r="B21" s="131" t="s">
+      <c r="A21" s="376"/>
+      <c r="B21" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="375"/>
+      <c r="C21" s="372"/>
       <c r="D21" s="10" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="163" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
+      <c r="A22" s="376"/>
+      <c r="B22" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="372"/>
+      <c r="D22" s="147" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="166" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A22" s="379"/>
-      <c r="B22" s="131" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="375"/>
-      <c r="D22" s="150" t="s">
+      <c r="E22" s="147" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22" s="170" t="s">
         <v>187</v>
       </c>
-      <c r="E22" s="150" t="s">
-        <v>199</v>
-      </c>
-      <c r="F22" s="173" t="s">
-        <v>191</v>
-      </c>
     </row>
     <row r="23" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A23" s="379"/>
-      <c r="B23" s="131" t="s">
+      <c r="A23" s="376"/>
+      <c r="B23" s="129" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="375"/>
+      <c r="C23" s="372"/>
       <c r="D23" s="11"/>
       <c r="E23" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F23" s="166" t="s">
-        <v>313</v>
+        <v>202</v>
+      </c>
+      <c r="F23" s="163" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="66" x14ac:dyDescent="0.25">
-      <c r="A24" s="379"/>
-      <c r="B24" s="131" t="s">
+      <c r="A24" s="376"/>
+      <c r="B24" s="129" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="131"/>
-      <c r="D24" s="147"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="173" t="s">
-        <v>197</v>
+      <c r="C24" s="129"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="170" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="380"/>
-      <c r="B25" s="174" t="s">
+      <c r="A25" s="377"/>
+      <c r="B25" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="175" t="s">
-        <v>189</v>
-      </c>
-      <c r="E25" s="176" t="s">
-        <v>195</v>
-      </c>
-      <c r="F25" s="177" t="s">
-        <v>192</v>
+      <c r="C25" s="171"/>
+      <c r="D25" s="172" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="173" t="s">
+        <v>191</v>
+      </c>
+      <c r="F25" s="174" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
